--- a/outputs/results/zones/mites.xlsx
+++ b/outputs/results/zones/mites.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="test 2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="alive 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="untreated" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="venom 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="venom 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="untreated" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="venom 1" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="test 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="dead 1" sheetId="7" state="visible" r:id="rId7"/>
@@ -32,12 +32,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -58,9 +64,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -206,7 +213,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6667500" cy="9525000"/>
+    <ext cx="6667500" cy="5715000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -236,7 +243,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6667500" cy="3810000"/>
+    <ext cx="6667500" cy="9525000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -326,7 +333,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6667500" cy="5715000"/>
+    <ext cx="6667500" cy="3810000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -662,7 +669,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -674,17 +681,17 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mite_0004</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
+          <t>mite_0003</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -698,31 +705,31 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mite_0015</t>
+          <t>mite_0016</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mite_0033</t>
+          <t>mite_0031</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -738,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,43 +771,31 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mite_0007</t>
+          <t>mite_0009</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mite_0011</t>
+          <t>mite_0019</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mite_0019</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -811,6 +806,96 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>mite ID</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>mite_0004</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mite_0013</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mite_0029</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>dead</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mite_0032</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>alive</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mite_0036</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>dead</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -837,12 +922,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mite_0003</t>
+          <t>mite_0005</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -854,7 +939,7 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -864,7 +949,7 @@
           <t>mite_0010</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -873,10 +958,10 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mite_0014</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
+          <t>mite_0011</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -885,22 +970,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mite_0017</t>
+          <t>mite_0015</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mite_0029</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
+          <t>mite_0027</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -909,102 +994,36 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mite_0032</t>
+          <t>mite_0030</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mite_0034</t>
+          <t>mite_0033</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mite_0038</t>
+          <t>mite_0037</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>mite ID</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>mite_0005</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>alive</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mite_0022</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>alive</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>mite_0037</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1063,7 @@
           <t>mite_0006</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -1053,34 +1072,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mite_0018</t>
+          <t>mite_0014</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mite_0021</t>
+          <t>mite_0018</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mite_0028</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
+          <t>mite_0020</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -1089,12 +1108,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mite_0036</t>
+          <t>mite_0035</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -1131,48 +1150,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mite_0009</t>
+          <t>mite_0007</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mite_0020</t>
+          <t>mite_0017</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mite_0024</t>
+          <t>mite_0025</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mite_0035</t>
+          <t>mite_0034</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1209,10 +1228,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mite_0013</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
+          <t>mite_0021</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -1221,10 +1240,10 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mite_0016</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
+          <t>mite_0022</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>alive</t>
         </is>
@@ -1233,36 +1252,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>mite_0023</t>
+          <t>mite_0024</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>alive</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>mite_0026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>alive</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mite_0027</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>alive</t>
+          <t>dead</t>
         </is>
       </c>
     </row>
